--- a/Cycle life and rate capability tests evaluation/Inputs_CAP.xlsx
+++ b/Cycle life and rate capability tests evaluation/Inputs_CAP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teolo\Documents\Teo\Codes\New\Cycling analyzer\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teolo\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{0C3EE79E-04DA-493A-AFB7-8DC59D83D0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36DFED4F-120B-4B6A-AB0E-FF4D4DD2A279}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06E9B29-078F-4A06-90B5-F740EBFB15CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CFDD6E18-9ECC-4883-A45C-6296B4FADBD6}"/>
   </bookViews>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -58,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>Parameters' name</t>
   </si>
@@ -81,12 +79,6 @@
     <t>Softwares</t>
   </si>
   <si>
-    <t>Teo Lombardo</t>
-  </si>
-  <si>
-    <t>68df92aa69b880f1df9232b969c86722643f273f7b16ccc550ba7560e28dc167cb3e242b7c098205fe24</t>
-  </si>
-  <si>
     <t>Software</t>
   </si>
   <si>
@@ -94,12 +86,6 @@
   </si>
   <si>
     <t>Software used for cycling. Two options are acceptable here, either "EC-Lab" or "Maccor".</t>
-  </si>
-  <si>
-    <t>Davide Gomboso</t>
-  </si>
-  <si>
-    <t>5ccda74a24dda2fda4d5db2f32e67867310f96b2d6116e7698d6616be9c72facc3523a84066e61afa9b7</t>
   </si>
   <si>
     <t>Path</t>
@@ -413,7 +399,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -838,44 +824,44 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1202,11 +1188,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{954BF26F-F562-4852-9585-5BB587B92B53}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="94.140625" customWidth="1"/>
@@ -1216,7 +1202,7 @@
     <col min="11" max="11" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27" customHeight="1" thickBot="1">
+    <row r="1" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1233,223 +1219,215 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
       <c r="G2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A3" s="7" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="G3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="14"/>
+      <c r="K3" s="21"/>
+    </row>
+    <row r="4" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A4" s="8" t="s">
-        <v>14</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
     </row>
-    <row r="5" spans="1:11" ht="18" thickBot="1">
+    <row r="5" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="1:11" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A6" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
+    <row r="6" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
     </row>
-    <row r="7" spans="1:11" ht="67.5" thickBot="1">
+    <row r="7" spans="1:11" ht="67.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="33.75" thickBot="1">
+    <row r="8" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
     </row>
-    <row r="9" spans="1:11" ht="33.75" thickBot="1">
+    <row r="9" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
     </row>
-    <row r="10" spans="1:11" ht="21" customHeight="1" thickBot="1">
-      <c r="A10" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
+    <row r="10" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
     </row>
-    <row r="11" spans="1:11" ht="33.75" thickBot="1">
+    <row r="11" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
     </row>
-    <row r="12" spans="1:11" ht="33.75" thickBot="1">
+    <row r="12" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="21" customHeight="1" thickBot="1">
-      <c r="A13" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="28"/>
-    </row>
-    <row r="14" spans="1:11" ht="33.75" thickBot="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="34"/>
+      <c r="C13" s="29"/>
+    </row>
+    <row r="14" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="66.75" thickBot="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="102" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="27" customHeight="1" thickBot="1">
+      <c r="C15" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="18.75" thickBot="1">
-      <c r="A17" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
-    </row>
-    <row r="18" spans="1:3" ht="50.25" thickBot="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+    </row>
+    <row r="18" spans="1:3" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="18.75" thickBot="1">
-      <c r="A19" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="31"/>
-    </row>
-    <row r="20" spans="1:3" ht="33.75" thickBot="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="32"/>
+    </row>
+    <row r="20" spans="1:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="50.25" thickBot="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="17.25" thickBot="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B22" s="3" cm="1">
         <f t="array" ref="B22">_xlfn.IFS(B21=J2,K2,B21=J3,K3,B21=J4,K4,B21=J5,K5,B21=J6,K6,B21=J7,K7,B21=J8,K8,B21=J9,K9,B21=J10,K10,B21=J11,K11)</f>
         <v>0</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1475,21 +1453,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100AC91D92F486FDC47B3EF9123D3BAEFB9" ma:contentTypeVersion="10" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="83d9cee093835505d3304f411126831e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="33d5f7fa-9e83-4bc4-a19a-5256d0f00943" xmlns:ns3="d7792865-cc65-4be1-9bf5-a00b3f24943d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3f96232782425850ca7fb8b659720fc8" ns2:_="" ns3:_="">
     <xsd:import namespace="33d5f7fa-9e83-4bc4-a19a-5256d0f00943"/>
@@ -1692,14 +1655,53 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAB8B4A3-BADC-4BA1-AD2F-6C4D87A88465}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{106C539E-C92A-4A46-ADD6-940EC582FFFB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="33d5f7fa-9e83-4bc4-a19a-5256d0f00943"/>
+    <ds:schemaRef ds:uri="d7792865-cc65-4be1-9bf5-a00b3f24943d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5B91E73-FEB0-44F9-90AF-198875D30683}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5B91E73-FEB0-44F9-90AF-198875D30683}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{106C539E-C92A-4A46-ADD6-940EC582FFFB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAB8B4A3-BADC-4BA1-AD2F-6C4D87A88465}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Cycle life and rate capability tests evaluation/Inputs_CAP.xlsx
+++ b/Cycle life and rate capability tests evaluation/Inputs_CAP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teolo\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06E9B29-078F-4A06-90B5-F740EBFB15CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145C190A-F79B-404A-B098-5EAECEFCCF6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CFDD6E18-9ECC-4883-A45C-6296B4FADBD6}"/>
   </bookViews>
@@ -1188,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{954BF26F-F562-4852-9585-5BB587B92B53}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:K3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1453,6 +1453,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100AC91D92F486FDC47B3EF9123D3BAEFB9" ma:contentTypeVersion="10" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="83d9cee093835505d3304f411126831e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="33d5f7fa-9e83-4bc4-a19a-5256d0f00943" xmlns:ns3="d7792865-cc65-4be1-9bf5-a00b3f24943d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3f96232782425850ca7fb8b659720fc8" ns2:_="" ns3:_="">
     <xsd:import namespace="33d5f7fa-9e83-4bc4-a19a-5256d0f00943"/>
@@ -1655,22 +1670,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAB8B4A3-BADC-4BA1-AD2F-6C4D87A88465}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5B91E73-FEB0-44F9-90AF-198875D30683}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{106C539E-C92A-4A46-ADD6-940EC582FFFB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1687,21 +1704,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5B91E73-FEB0-44F9-90AF-198875D30683}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAB8B4A3-BADC-4BA1-AD2F-6C4D87A88465}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>